--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v9.2.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v9.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12162190-36F0-4993-8085-0A15E5858E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16DE57B-D3DB-4E2C-A85E-1C4DCFD395BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25410" yWindow="135" windowWidth="25560" windowHeight="20745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23760" yWindow="2505" windowWidth="26100" windowHeight="17580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -2064,13 +2064,13 @@
     <t>Centre des technologies de l'information de l'Etat (CTIE)</t>
   </si>
   <si>
+    <t>RegEx: [0-9]{11}</t>
+  </si>
+  <si>
     <t>- 11 characters in total (Arabic numerals only)
-- 4 first digits = year
+- 4 first digits = year (may be 0000)
 - Digits 5-6 = legal form of the legal person
 Checksum: digit 11</t>
-  </si>
-  <si>
-    <t>RegEx: [1-9][0-9]{10}</t>
   </si>
 </sst>
 </file>
@@ -2866,10 +2866,10 @@
   <dimension ref="A1:AMN105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8581,14 +8581,14 @@
         <v>484</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>530</v>
